--- a/src/main/resources/testfiles/商品表.xlsx
+++ b/src/main/resources/testfiles/商品表.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\files\spring\sbproject\datamanagement\src\main\resources\testfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\datamanagement\src\main\resources\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="4725" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="用户信息file" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>商品ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,6 +43,22 @@
   </si>
   <si>
     <t>小米手环4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天猫精灵方糖R音箱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -49,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -69,6 +86,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -113,11 +137,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -402,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -415,7 +442,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -453,4 +480,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>79</v>
+      </c>
+      <c r="D2">
+        <v>600</v>
+      </c>
+      <c r="E2">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>